--- a/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461C120-7CFE-4518-AEA8-99AD8CE375D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C42E9-4913-482B-B4D5-7721B7AB0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="0" windowWidth="15330" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="7515" windowWidth="24675" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Jeong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F3E861B3-DFA2-432B-A223-21332E6335F2}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F3E861B3-DFA2-432B-A223-21332E6335F2}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sprite_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spawn_tile_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,15 +97,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weed{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneObject{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodObject{0}</t>
+    <t>prefab_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneObject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneObject2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodObject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodObject2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\StoneObject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\StoneObject2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\WoodObject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\WoodObject2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Weed1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Weed2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Weed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Weed4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -545,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -568,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -576,22 +628,22 @@
         <v>5000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="F3" s="2">
-        <v>4001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -602,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>4001</v>
       </c>
       <c r="F4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -622,22 +674,137 @@
         <v>5002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>4002</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C42E9-4913-482B-B4D5-7721B7AB0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290284A-622F-4002-8B5A-FAD01FB221C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="7515" windowWidth="24675" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14670" yWindow="1695" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Jeong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F3E861B3-DFA2-432B-A223-21332E6335F2}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F3E861B3-DFA2-432B-A223-21332E6335F2}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>Prefabs\OtherObject\Ruck\Weed4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usetool_type_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,23 +565,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,19 +593,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,10 +628,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -634,19 +645,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4001</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -657,19 +671,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>4001</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
@@ -680,19 +697,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>4000</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -703,19 +723,22 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>4000</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -726,19 +749,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>4002</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -749,19 +775,22 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>4002</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -772,19 +801,22 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>4002</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -795,15 +827,18 @@
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>4002</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/ruck_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290284A-622F-4002-8B5A-FAD01FB221C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14670" yWindow="1695" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14670" yWindow="1695" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jeong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F3E861B3-DFA2-432B-A223-21332E6335F2}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,12 +166,45 @@
   <si>
     <t>usetool_type_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_tool_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Grass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass3</t>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Grass2</t>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Ruck\Grass3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +281,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -580,9 +615,10 @@
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +643,11 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,8 +672,11 @@
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -659,8 +701,11 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -685,8 +730,11 @@
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
@@ -711,8 +759,11 @@
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -737,8 +788,11 @@
       <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -763,8 +817,11 @@
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -789,8 +846,11 @@
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -815,8 +875,11 @@
       <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -840,11 +903,102 @@
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>5008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4004</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4004</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4004</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>